--- a/Sales Data.xlsx
+++ b/Sales Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chima.CHIGOZIE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unilever-my.sharepoint.com/personal/chima_chigozie_unilever_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DE00E5-1CBA-474F-8181-B54660C9E372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4549FC6E-EB0D-4B70-8542-E55D7F45D828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C1FFAAF4-D038-4A7E-A9BF-B9B69AB00074}"/>
   </bookViews>
